--- a/VarexJSmallScaleEvaluation/Results/Prefix/ALLPrefix.xlsx
+++ b/VarexJSmallScaleEvaluation/Results/Prefix/ALLPrefix.xlsx
@@ -813,8 +813,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122332160"/>
-        <c:axId val="83609856"/>
+        <c:axId val="124888064"/>
+        <c:axId val="85698816"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -917,11 +917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122333184"/>
-        <c:axId val="83610432"/>
+        <c:axId val="124889088"/>
+        <c:axId val="85699392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122332160"/>
+        <c:axId val="124888064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83609856"/>
+        <c:crossAx val="85698816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83609856"/>
+        <c:axId val="85698816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122332160"/>
+        <c:crossAx val="124888064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83610432"/>
+        <c:axId val="85699392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +964,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122333184"/>
+        <c:crossAx val="124889088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="122333184"/>
+        <c:axId val="124889088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83610432"/>
+        <c:crossAx val="85699392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,8 +1120,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86227456"/>
-        <c:axId val="83612160"/>
+        <c:axId val="88324608"/>
+        <c:axId val="85701120"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1224,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123220992"/>
-        <c:axId val="83612736"/>
+        <c:axId val="125318144"/>
+        <c:axId val="85701696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86227456"/>
+        <c:axId val="88324608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83612160"/>
+        <c:crossAx val="85701120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83612160"/>
+        <c:axId val="85701120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1256,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86227456"/>
+        <c:crossAx val="88324608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83612736"/>
+        <c:axId val="85701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,12 +1271,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123220992"/>
+        <c:crossAx val="125318144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="123220992"/>
+        <c:axId val="125318144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83612736"/>
+        <c:crossAx val="85701696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1295,7 +1295,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1671,8 +1670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123222016"/>
-        <c:axId val="83614464"/>
+        <c:axId val="125319168"/>
+        <c:axId val="85703424"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2018,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122334720"/>
-        <c:axId val="83615040"/>
+        <c:axId val="124890624"/>
+        <c:axId val="85704000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123222016"/>
+        <c:axId val="125319168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83614464"/>
+        <c:crossAx val="85703424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2039,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83614464"/>
+        <c:axId val="85703424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2049,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123222016"/>
+        <c:crossAx val="125319168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83615040"/>
+        <c:axId val="85704000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122334720"/>
+        <c:crossAx val="124890624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="122334720"/>
+        <c:axId val="124890624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83615040"/>
+        <c:crossAx val="85704000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2088,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2659,11 +2657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123459584"/>
-        <c:axId val="123290752"/>
+        <c:axId val="125495296"/>
+        <c:axId val="124798080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123459584"/>
+        <c:axId val="125495296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123290752"/>
+        <c:crossAx val="124798080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,7 +2700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123290752"/>
+        <c:axId val="124798080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000"/>
@@ -2733,7 +2731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123459584"/>
+        <c:crossAx val="125495296"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3984,11 +3982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122572800"/>
-        <c:axId val="123293056"/>
+        <c:axId val="124669952"/>
+        <c:axId val="124800384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122572800"/>
+        <c:axId val="124669952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4017,7 +4015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123293056"/>
+        <c:crossAx val="124800384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123293056"/>
+        <c:axId val="124800384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000000"/>
@@ -4058,7 +4056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122572800"/>
+        <c:crossAx val="124669952"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5370,11 +5368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86227968"/>
-        <c:axId val="123295360"/>
+        <c:axId val="88325120"/>
+        <c:axId val="124802688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86227968"/>
+        <c:axId val="88325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5403,7 +5401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123295360"/>
+        <c:crossAx val="124802688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5413,7 +5411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123295360"/>
+        <c:axId val="124802688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5443,7 +5441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86227968"/>
+        <c:crossAx val="88325120"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5466,6 +5464,4727 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>841.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>957.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1546.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2348.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3894.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6985.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13242.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25855.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51097.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1096.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7187.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13434.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26510.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52281.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1365.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1544.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2473.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3606.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19019.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37693.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73858.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8007.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7959.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7956.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7880.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7918.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7904.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7917.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7914.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7886.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3055.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3101.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3117.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3135.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3210.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3325.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3308.6666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124671488"/>
+        <c:axId val="126287872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124671488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prefix</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126287872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126287872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124671488"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>939932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1839943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3639965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7240009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14440097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28840273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57640625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115241329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230442737</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>460845553</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>921651185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1828719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1828719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3628741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7228785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14428873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28829049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57629401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115230105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230431513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>460834329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>921639961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>927656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1827667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3627689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7227733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14427821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28827997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57628349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115229053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230430461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>460833277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>921638909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>900215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124672512"/>
+        <c:axId val="126290176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124672512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prefix</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126290176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126290176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Instructions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124672512"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>644.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>461.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>312.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$L$2:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>525.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>537.33333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124673536"/>
+        <c:axId val="126292480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124673536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prefix</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126292480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126292480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory Consumptions in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124673536"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50136979166666662"/>
+          <c:y val="3.0074166666666669E-2"/>
+          <c:w val="0.45453298611111109"/>
+          <c:h val="0.32954583333333332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5587,16 +10306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>448919</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>848969</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>109330</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5619,16 +10338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>310598</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82412</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>501098</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>399605</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30705</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590105</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5676,6 +10395,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>346350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>470175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>251100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -26871,8 +31686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P694"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
